--- a/out/test/Figori_algorithm_16.xlsx
+++ b/out/test/Figori_algorithm_16.xlsx
@@ -392,1674 +392,1674 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.89510000000000001</v>
+        <v>0.89270000000000005</v>
       </c>
       <c r="B1">
-        <v>0.93279999999999996</v>
+        <v>0.87690000000000001</v>
       </c>
       <c r="C1">
-        <v>0.87980000000000003</v>
+        <v>0.90949999999999998</v>
       </c>
       <c r="D1">
-        <v>0.93669999999999998</v>
+        <v>0.89875000000000005</v>
       </c>
       <c r="E1">
-        <v>0.93874999999999997</v>
+        <v>0.9375</v>
       </c>
       <c r="F1">
+        <v>0.9284</v>
+      </c>
+      <c r="G1">
+        <v>0.93889999999999996</v>
+      </c>
+      <c r="H1">
+        <v>0.87329999999999997</v>
+      </c>
+      <c r="I1">
+        <v>0.93679999999999997</v>
+      </c>
+      <c r="J1">
+        <v>0.93484999999999996</v>
+      </c>
+      <c r="K1">
+        <v>0.85840000000000005</v>
+      </c>
+      <c r="L1">
+        <v>0.93205000000000005</v>
+      </c>
+      <c r="M1">
+        <v>0.94169999999999998</v>
+      </c>
+      <c r="N1">
+        <v>0.94220000000000004</v>
+      </c>
+      <c r="O1">
+        <v>0.93225000000000002</v>
+      </c>
+      <c r="P1">
+        <v>0.93294999999999995</v>
+      </c>
+      <c r="Q1">
+        <v>0.93794999999999995</v>
+      </c>
+      <c r="R1">
+        <v>0.89475000000000005</v>
+      </c>
+      <c r="S1">
+        <v>0.89329999999999998</v>
+      </c>
+      <c r="T1">
+        <v>0.94479999999999997</v>
+      </c>
+      <c r="U1">
+        <v>0.89839999999999998</v>
+      </c>
+      <c r="V1">
+        <v>0.93584999999999996</v>
+      </c>
+      <c r="W1">
+        <v>0.90280000000000005</v>
+      </c>
+      <c r="X1">
+        <v>0.9022</v>
+      </c>
+      <c r="Y1">
+        <v>0.85650000000000004</v>
+      </c>
+      <c r="Z1">
+        <v>0.95469999999999999</v>
+      </c>
+      <c r="AA1">
+        <v>0.89729999999999999</v>
+      </c>
+      <c r="AB1">
+        <v>0.93784999999999996</v>
+      </c>
+      <c r="AC1">
+        <v>0.90359999999999996</v>
+      </c>
+      <c r="AD1">
+        <v>0.93140000000000001</v>
+      </c>
+      <c r="AE1">
+        <v>0.93645</v>
+      </c>
+      <c r="AF1">
+        <v>0.87729999999999997</v>
+      </c>
+      <c r="AG1">
+        <v>0.93435000000000001</v>
+      </c>
+      <c r="AH1">
+        <v>0.89319999999999999</v>
+      </c>
+      <c r="AI1">
+        <v>0.85450000000000004</v>
+      </c>
+      <c r="AJ1">
+        <v>0.93140000000000001</v>
+      </c>
+      <c r="AK1">
+        <v>0.93269999999999997</v>
+      </c>
+      <c r="AL1">
         <v>0.93105000000000004</v>
       </c>
-      <c r="G1">
-        <v>0.85119999999999996</v>
-      </c>
-      <c r="H1">
-        <v>0.89859999999999995</v>
-      </c>
-      <c r="I1">
-        <v>0.9032</v>
-      </c>
-      <c r="J1">
-        <v>0.94035000000000002</v>
-      </c>
-      <c r="K1">
-        <v>0.87350000000000005</v>
-      </c>
-      <c r="L1">
-        <v>0.93015000000000003</v>
-      </c>
-      <c r="M1">
-        <v>0.93345</v>
-      </c>
-      <c r="N1">
-        <v>0.85570000000000002</v>
-      </c>
-      <c r="O1">
-        <v>0.89359999999999995</v>
-      </c>
-      <c r="P1">
-        <v>0.93389999999999995</v>
-      </c>
-      <c r="Q1">
-        <v>0.90029999999999999</v>
-      </c>
-      <c r="R1">
-        <v>0.94125000000000003</v>
-      </c>
-      <c r="S1">
-        <v>0.87280000000000002</v>
-      </c>
-      <c r="T1">
-        <v>0.94230000000000003</v>
-      </c>
-      <c r="U1">
-        <v>0.93545</v>
-      </c>
-      <c r="V1">
-        <v>0.92849999999999999</v>
-      </c>
-      <c r="W1">
-        <v>0.94130000000000003</v>
-      </c>
-      <c r="X1">
-        <v>0.93454999999999999</v>
-      </c>
-      <c r="Y1">
+      <c r="AM1">
+        <v>0.95079999999999998</v>
+      </c>
+      <c r="AN1">
+        <v>0.93905000000000005</v>
+      </c>
+      <c r="AO1">
+        <v>0.87239999999999995</v>
+      </c>
+      <c r="AP1">
+        <v>0.93759999999999999</v>
+      </c>
+      <c r="AQ1">
+        <v>0.90510000000000002</v>
+      </c>
+      <c r="AR1">
+        <v>0.93540000000000001</v>
+      </c>
+      <c r="AS1">
+        <v>0.95550000000000002</v>
+      </c>
+      <c r="AT1">
         <v>0.8972</v>
       </c>
-      <c r="Z1">
-        <v>0.95620000000000005</v>
-      </c>
-      <c r="AA1">
-        <v>0.92630000000000001</v>
-      </c>
-      <c r="AB1">
-        <v>0.8992</v>
-      </c>
-      <c r="AC1">
-        <v>0.89200000000000002</v>
-      </c>
-      <c r="AD1">
-        <v>0.93415000000000004</v>
-      </c>
-      <c r="AE1">
-        <v>0.89664999999999995</v>
-      </c>
-      <c r="AF1">
-        <v>0.87109999999999999</v>
-      </c>
-      <c r="AG1">
-        <v>0.93310000000000004</v>
-      </c>
-      <c r="AH1">
-        <v>0.93589999999999995</v>
-      </c>
-      <c r="AI1">
-        <v>0.93915000000000004</v>
-      </c>
-      <c r="AJ1">
-        <v>0.90339999999999998</v>
-      </c>
-      <c r="AK1">
-        <v>0.93145</v>
-      </c>
-      <c r="AL1">
-        <v>0.93889999999999996</v>
-      </c>
-      <c r="AM1">
-        <v>0.92964999999999998</v>
-      </c>
-      <c r="AN1">
-        <v>0.93110000000000004</v>
-      </c>
-      <c r="AO1">
-        <v>0.93130000000000002</v>
-      </c>
-      <c r="AP1">
-        <v>0.9335</v>
-      </c>
-      <c r="AQ1">
-        <v>0.94350000000000001</v>
-      </c>
-      <c r="AR1">
-        <v>0.93079999999999996</v>
-      </c>
-      <c r="AS1">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="AT1">
-        <v>0.94115000000000004</v>
-      </c>
       <c r="AU1">
-        <v>0.93469999999999998</v>
+        <v>0.85419999999999996</v>
       </c>
       <c r="AV1">
-        <v>0.87319999999999998</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="AW1">
-        <v>0.94479999999999997</v>
+        <v>0.8599</v>
       </c>
       <c r="AX1">
-        <v>0.89495000000000002</v>
+        <v>0.89675000000000005</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.86799999999999999</v>
+        <v>0.85255000000000003</v>
       </c>
       <c r="B2">
-        <v>0.92115000000000002</v>
+        <v>0.79369999999999996</v>
       </c>
       <c r="C2">
-        <v>0.77159999999999995</v>
+        <v>0.8508</v>
       </c>
       <c r="D2">
-        <v>0.9093</v>
+        <v>0.92090000000000005</v>
       </c>
       <c r="E2">
-        <v>0.90664999999999996</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="F2">
-        <v>0.96530000000000005</v>
+        <v>0.90385000000000004</v>
       </c>
       <c r="G2">
-        <v>0.79684999999999995</v>
+        <v>0.90549999999999997</v>
       </c>
       <c r="H2">
-        <v>0.86270000000000002</v>
+        <v>0.82010000000000005</v>
       </c>
       <c r="I2">
-        <v>0.89510000000000001</v>
+        <v>0.96960000000000002</v>
       </c>
       <c r="J2">
-        <v>0.91379999999999995</v>
+        <v>0.92669999999999997</v>
       </c>
       <c r="K2">
-        <v>0.80325000000000002</v>
+        <v>0.85950000000000004</v>
       </c>
       <c r="L2">
-        <v>0.90210000000000001</v>
+        <v>0.89480000000000004</v>
       </c>
       <c r="M2">
-        <v>0.89829999999999999</v>
+        <v>0.91839999999999999</v>
       </c>
       <c r="N2">
-        <v>0.80769999999999997</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="O2">
-        <v>0.85229999999999995</v>
+        <v>0.90529999999999999</v>
       </c>
       <c r="P2">
-        <v>0.90159999999999996</v>
+        <v>0.87324999999999997</v>
       </c>
       <c r="Q2">
-        <v>0.86240000000000006</v>
+        <v>0.93645</v>
       </c>
       <c r="R2">
-        <v>0.96160000000000001</v>
+        <v>0.8226</v>
       </c>
       <c r="S2">
-        <v>0.81920000000000004</v>
+        <v>0.86619999999999997</v>
       </c>
       <c r="T2">
-        <v>0.93759999999999999</v>
+        <v>0.9123</v>
       </c>
       <c r="U2">
-        <v>0.91269999999999996</v>
+        <v>0.91390000000000005</v>
       </c>
       <c r="V2">
-        <v>0.89319999999999999</v>
+        <v>0.91090000000000004</v>
       </c>
       <c r="W2">
-        <v>0.90639999999999998</v>
+        <v>0.88319999999999999</v>
       </c>
       <c r="X2">
-        <v>0.93254999999999999</v>
+        <v>0.81664999999999999</v>
       </c>
       <c r="Y2">
-        <v>0.83830000000000005</v>
+        <v>0.79549999999999998</v>
       </c>
       <c r="Z2">
-        <v>0.92989999999999995</v>
+        <v>0.93189999999999995</v>
       </c>
       <c r="AA2">
-        <v>0.90510000000000002</v>
+        <v>0.84419999999999995</v>
       </c>
       <c r="AB2">
-        <v>0.87529999999999997</v>
+        <v>0.91274999999999995</v>
       </c>
       <c r="AC2">
-        <v>0.86919999999999997</v>
+        <v>0.96940000000000004</v>
       </c>
       <c r="AD2">
-        <v>0.91590000000000005</v>
+        <v>0.90854999999999997</v>
       </c>
       <c r="AE2">
-        <v>0.88300000000000001</v>
+        <v>0.90180000000000005</v>
       </c>
       <c r="AF2">
-        <v>0.94155</v>
+        <v>0.83489999999999998</v>
       </c>
       <c r="AG2">
-        <v>0.91610000000000003</v>
+        <v>0.88305</v>
       </c>
       <c r="AH2">
-        <v>0.93220000000000003</v>
+        <v>0.85104999999999997</v>
       </c>
       <c r="AI2">
-        <v>0.90644999999999998</v>
+        <v>0.79930000000000001</v>
       </c>
       <c r="AJ2">
-        <v>0.88070000000000004</v>
+        <v>0.91049999999999998</v>
       </c>
       <c r="AK2">
-        <v>0.90620000000000001</v>
+        <v>0.88690000000000002</v>
       </c>
       <c r="AL2">
-        <v>0.92630000000000001</v>
+        <v>0.89524999999999999</v>
       </c>
       <c r="AM2">
-        <v>0.87295</v>
+        <v>0.92669999999999997</v>
       </c>
       <c r="AN2">
-        <v>0.8589</v>
+        <v>0.86380000000000001</v>
       </c>
       <c r="AO2">
-        <v>0.89810000000000001</v>
+        <v>0.7994</v>
       </c>
       <c r="AP2">
-        <v>0.87770000000000004</v>
+        <v>0.88349999999999995</v>
       </c>
       <c r="AQ2">
-        <v>0.92949999999999999</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="AR2">
-        <v>0.90010000000000001</v>
+        <v>0.93179999999999996</v>
       </c>
       <c r="AS2">
-        <v>0.92910000000000004</v>
+        <v>0.92010000000000003</v>
       </c>
       <c r="AT2">
-        <v>0.93049999999999999</v>
+        <v>0.95140000000000002</v>
       </c>
       <c r="AU2">
-        <v>0.92120000000000002</v>
+        <v>0.82315000000000005</v>
       </c>
       <c r="AV2">
-        <v>0.80610000000000004</v>
+        <v>0.93445</v>
       </c>
       <c r="AW2">
-        <v>0.9123</v>
+        <v>0.85209999999999997</v>
       </c>
       <c r="AX2">
-        <v>0.85514999999999997</v>
+        <v>0.88229999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.82884999999999998</v>
+        <v>0.76819999999999999</v>
       </c>
       <c r="B3">
-        <v>0.95379999999999998</v>
+        <v>0.71120000000000005</v>
       </c>
       <c r="C3">
-        <v>0.70230000000000004</v>
+        <v>0.76219999999999999</v>
       </c>
       <c r="D3">
-        <v>0.98760000000000003</v>
+        <v>0.85460000000000003</v>
       </c>
       <c r="E3">
-        <v>0.98470000000000002</v>
+        <v>0.89305000000000001</v>
       </c>
       <c r="F3">
-        <v>0.94550000000000001</v>
+        <v>0.82089999999999996</v>
       </c>
       <c r="G3">
-        <v>0.65429999999999999</v>
+        <v>0.86060000000000003</v>
       </c>
       <c r="H3">
-        <v>0.7268</v>
+        <v>0.67479999999999996</v>
       </c>
       <c r="I3">
-        <v>0.98099999999999998</v>
+        <v>0.92069999999999996</v>
       </c>
       <c r="J3">
-        <v>0.86250000000000004</v>
+        <v>0.8488</v>
       </c>
       <c r="K3">
-        <v>0.83440000000000003</v>
+        <v>0.89939999999999998</v>
       </c>
       <c r="L3">
-        <v>0.87509999999999999</v>
+        <v>0.79710000000000003</v>
       </c>
       <c r="M3">
+        <v>0.88639999999999997</v>
+      </c>
+      <c r="N3">
+        <v>0.92349999999999999</v>
+      </c>
+      <c r="O3">
+        <v>0.85309999999999997</v>
+      </c>
+      <c r="P3">
+        <v>0.82545000000000002</v>
+      </c>
+      <c r="Q3">
+        <v>0.8992</v>
+      </c>
+      <c r="R3">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="S3">
+        <v>0.75119999999999998</v>
+      </c>
+      <c r="T3">
+        <v>0.87670000000000003</v>
+      </c>
+      <c r="U3">
+        <v>0.86560000000000004</v>
+      </c>
+      <c r="V3">
+        <v>0.74590000000000001</v>
+      </c>
+      <c r="W3">
+        <v>0.88380000000000003</v>
+      </c>
+      <c r="X3">
+        <v>0.68835000000000002</v>
+      </c>
+      <c r="Y3">
+        <v>0.89270000000000005</v>
+      </c>
+      <c r="Z3">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="AA3">
+        <v>0.87670000000000003</v>
+      </c>
+      <c r="AB3">
+        <v>0.87790000000000001</v>
+      </c>
+      <c r="AC3">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="AD3">
+        <v>0.85009999999999997</v>
+      </c>
+      <c r="AE3">
+        <v>0.79295000000000004</v>
+      </c>
+      <c r="AF3">
+        <v>0.69550000000000001</v>
+      </c>
+      <c r="AG3">
+        <v>0.79390000000000005</v>
+      </c>
+      <c r="AH3">
+        <v>0.74650000000000005</v>
+      </c>
+      <c r="AI3">
+        <v>0.68169999999999997</v>
+      </c>
+      <c r="AJ3">
+        <v>0.87109999999999999</v>
+      </c>
+      <c r="AK3">
+        <v>0.84079999999999999</v>
+      </c>
+      <c r="AL3">
+        <v>0.86194999999999999</v>
+      </c>
+      <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>0.81379999999999997</v>
+      </c>
+      <c r="AO3">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="AP3">
+        <v>0.86304999999999998</v>
+      </c>
+      <c r="AQ3">
+        <v>0.84635000000000005</v>
+      </c>
+      <c r="AR3">
+        <v>0.82774999999999999</v>
+      </c>
+      <c r="AS3">
         <v>0.8821</v>
       </c>
-      <c r="N3">
-        <v>0.73685</v>
-      </c>
-      <c r="O3">
-        <v>0.75639999999999996</v>
-      </c>
-      <c r="P3">
-        <v>0.87460000000000004</v>
-      </c>
-      <c r="Q3">
-        <v>0.87190000000000001</v>
-      </c>
-      <c r="R3">
-        <v>0.95394999999999996</v>
-      </c>
-      <c r="S3">
-        <v>0.69950000000000001</v>
-      </c>
-      <c r="T3">
-        <v>0.88270000000000004</v>
-      </c>
-      <c r="U3">
-        <v>0.88790000000000002</v>
-      </c>
-      <c r="V3">
-        <v>0.86519999999999997</v>
-      </c>
-      <c r="W3">
-        <v>0.87714999999999999</v>
-      </c>
-      <c r="X3">
-        <v>0.92679999999999996</v>
-      </c>
-      <c r="Y3">
-        <v>0.70069999999999999</v>
-      </c>
-      <c r="Z3">
-        <v>0.87560000000000004</v>
-      </c>
-      <c r="AA3">
-        <v>0.97909999999999997</v>
-      </c>
-      <c r="AB3">
-        <v>0.83779999999999999</v>
-      </c>
-      <c r="AC3">
-        <v>0.91110000000000002</v>
-      </c>
-      <c r="AD3">
-        <v>0.92390000000000005</v>
-      </c>
-      <c r="AE3">
-        <v>0.86739999999999995</v>
-      </c>
-      <c r="AF3">
-        <v>0.97319999999999995</v>
-      </c>
-      <c r="AG3">
-        <v>0.93479999999999996</v>
-      </c>
-      <c r="AH3">
-        <v>0.89870000000000005</v>
-      </c>
-      <c r="AI3">
-        <v>0.85085</v>
-      </c>
-      <c r="AJ3">
-        <v>0.89590000000000003</v>
-      </c>
-      <c r="AK3">
-        <v>0.84930000000000005</v>
-      </c>
-      <c r="AL3">
-        <v>0.88055000000000005</v>
-      </c>
-      <c r="AM3">
-        <v>0.84950000000000003</v>
-      </c>
-      <c r="AN3">
-        <v>0.83579999999999999</v>
-      </c>
-      <c r="AO3">
-        <v>0.80220000000000002</v>
-      </c>
-      <c r="AP3">
-        <v>0.76465000000000005</v>
-      </c>
-      <c r="AQ3">
-        <v>0.87944999999999995</v>
-      </c>
-      <c r="AR3">
-        <v>0.85829999999999995</v>
-      </c>
-      <c r="AS3">
-        <v>0.89749999999999996</v>
-      </c>
       <c r="AT3">
-        <v>0.85950000000000004</v>
+        <v>0.92949999999999999</v>
       </c>
       <c r="AU3">
-        <v>0.86829999999999996</v>
+        <v>0.78700000000000003</v>
       </c>
       <c r="AV3">
-        <v>0.62660000000000005</v>
+        <v>0.89829999999999999</v>
       </c>
       <c r="AW3">
-        <v>0.84804999999999997</v>
+        <v>0.76419999999999999</v>
       </c>
       <c r="AX3">
-        <v>0.61439999999999995</v>
+        <v>0.84619999999999995</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.96450000000000002</v>
+        <v>0.79720000000000002</v>
       </c>
       <c r="B4">
-        <v>0.85770000000000002</v>
+        <v>0.59030000000000005</v>
       </c>
       <c r="C4">
-        <v>0.51319999999999999</v>
+        <v>0.58079999999999998</v>
       </c>
       <c r="D4">
-        <v>0.97409999999999997</v>
+        <v>0.77339999999999998</v>
       </c>
       <c r="E4">
-        <v>0.93700000000000006</v>
+        <v>0.79459999999999997</v>
       </c>
       <c r="F4">
-        <v>0.90690000000000004</v>
+        <v>0.92410000000000003</v>
       </c>
       <c r="G4">
-        <v>0.62419999999999998</v>
+        <v>0.7621</v>
       </c>
       <c r="H4">
-        <v>0.58550000000000002</v>
+        <v>0.73370000000000002</v>
       </c>
       <c r="I4">
-        <v>0.93300000000000005</v>
+        <v>0.86339999999999995</v>
       </c>
       <c r="J4">
-        <v>0.74339999999999995</v>
+        <v>0.76119999999999999</v>
       </c>
       <c r="K4">
-        <v>0.83979999999999999</v>
+        <v>0.85719999999999996</v>
       </c>
       <c r="L4">
-        <v>0.78239999999999998</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="M4">
-        <v>0.9929</v>
+        <v>0.75509999999999999</v>
       </c>
       <c r="N4">
-        <v>0.54469999999999996</v>
+        <v>0.86180000000000001</v>
       </c>
       <c r="O4">
-        <v>0.90200000000000002</v>
+        <v>0.74560000000000004</v>
       </c>
       <c r="P4">
-        <v>0.78510000000000002</v>
+        <v>0.70089999999999997</v>
       </c>
       <c r="Q4">
-        <v>0.75760000000000005</v>
+        <v>0.92610000000000003</v>
       </c>
       <c r="R4">
-        <v>0.92949999999999999</v>
+        <v>0.80900000000000005</v>
       </c>
       <c r="S4">
-        <v>0.93020000000000003</v>
+        <v>0.61850000000000005</v>
       </c>
       <c r="T4">
-        <v>0.78049999999999997</v>
+        <v>0.81889999999999996</v>
       </c>
       <c r="U4">
+        <v>0.71950000000000003</v>
+      </c>
+      <c r="V4">
+        <v>0.73955000000000004</v>
+      </c>
+      <c r="W4">
+        <v>0.76549999999999996</v>
+      </c>
+      <c r="X4">
+        <v>0.60219999999999996</v>
+      </c>
+      <c r="Y4">
+        <v>0.84460000000000002</v>
+      </c>
+      <c r="Z4">
+        <v>0.9123</v>
+      </c>
+      <c r="AA4">
+        <v>0.78029999999999999</v>
+      </c>
+      <c r="AB4">
+        <v>0.78639999999999999</v>
+      </c>
+      <c r="AC4">
+        <v>0.96919999999999995</v>
+      </c>
+      <c r="AD4">
+        <v>0.96379999999999999</v>
+      </c>
+      <c r="AE4">
+        <v>0.70389999999999997</v>
+      </c>
+      <c r="AF4">
+        <v>0.54769999999999996</v>
+      </c>
+      <c r="AG4">
+        <v>0.60809999999999997</v>
+      </c>
+      <c r="AH4">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="AI4">
+        <v>0.80479999999999996</v>
+      </c>
+      <c r="AJ4">
         <v>0.96009999999999995</v>
       </c>
-      <c r="V4">
-        <v>0.76429999999999998</v>
-      </c>
-      <c r="W4">
-        <v>0.79790000000000005</v>
-      </c>
-      <c r="X4">
-        <v>0.81789999999999996</v>
-      </c>
-      <c r="Y4">
-        <v>0.76139999999999997</v>
-      </c>
-      <c r="Z4">
-        <v>0.82369999999999999</v>
-      </c>
-      <c r="AA4">
-        <v>0.90539999999999998</v>
-      </c>
-      <c r="AB4">
-        <v>0.6895</v>
-      </c>
-      <c r="AC4">
-        <v>0.84989999999999999</v>
-      </c>
-      <c r="AD4">
-        <v>0.83169999999999999</v>
-      </c>
-      <c r="AE4">
-        <v>0.95269999999999999</v>
-      </c>
-      <c r="AF4">
-        <v>0.91990000000000005</v>
-      </c>
-      <c r="AG4">
-        <v>0.9546</v>
-      </c>
-      <c r="AH4">
-        <v>0.76529999999999998</v>
-      </c>
-      <c r="AI4">
-        <v>0.77290000000000003</v>
-      </c>
-      <c r="AJ4">
-        <v>0.79879999999999995</v>
-      </c>
       <c r="AK4">
-        <v>0.69630000000000003</v>
+        <v>0.80679999999999996</v>
       </c>
       <c r="AL4">
-        <v>0.8226</v>
+        <v>0.67779999999999996</v>
       </c>
       <c r="AM4">
-        <v>0.77769999999999995</v>
+        <v>0.996</v>
       </c>
       <c r="AN4">
-        <v>0.72709999999999997</v>
+        <v>0.7581</v>
       </c>
       <c r="AO4">
-        <v>0.77370000000000005</v>
+        <v>0.62450000000000006</v>
       </c>
       <c r="AP4">
-        <v>0.70009999999999994</v>
+        <v>0.81120000000000003</v>
       </c>
       <c r="AQ4">
-        <v>0.76729999999999998</v>
+        <v>0.95189999999999997</v>
       </c>
       <c r="AR4">
-        <v>0.94720000000000004</v>
+        <v>0.73550000000000004</v>
       </c>
       <c r="AS4">
-        <v>0.81140000000000001</v>
+        <v>0.80920000000000003</v>
       </c>
       <c r="AT4">
-        <v>0.78049999999999997</v>
+        <v>0.88560000000000005</v>
       </c>
       <c r="AU4">
-        <v>0.74119999999999997</v>
+        <v>0.89480000000000004</v>
       </c>
       <c r="AV4">
-        <v>0.72060000000000002</v>
+        <v>0.83230000000000004</v>
       </c>
       <c r="AW4">
-        <v>0.79190000000000005</v>
+        <v>0.67049999999999998</v>
       </c>
       <c r="AX4">
-        <v>0.50009999999999999</v>
+        <v>0.72019999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.9516</v>
+        <v>0.67449999999999999</v>
       </c>
       <c r="B5">
-        <v>0.7157</v>
+        <v>0.379</v>
       </c>
       <c r="C5">
-        <v>0.61399999999999999</v>
+        <v>0.50019999999999998</v>
       </c>
       <c r="D5">
-        <v>0.88439999999999996</v>
+        <v>0.74229999999999996</v>
       </c>
       <c r="E5">
-        <v>0.81120000000000003</v>
+        <v>0.83130000000000004</v>
       </c>
       <c r="F5">
-        <v>0.86380000000000001</v>
+        <v>0.92420000000000002</v>
       </c>
       <c r="G5">
-        <v>0.4027</v>
+        <v>0.74909999999999999</v>
       </c>
       <c r="H5">
-        <v>0.41949999999999998</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="I5">
-        <v>0.81489999999999996</v>
+        <v>0.85109999999999997</v>
       </c>
       <c r="J5">
-        <v>0.57599999999999996</v>
+        <v>0.70609999999999995</v>
       </c>
       <c r="K5">
-        <v>0.94059999999999999</v>
+        <v>0.73460000000000003</v>
       </c>
       <c r="L5">
-        <v>0.69699999999999995</v>
+        <v>0.80530000000000002</v>
       </c>
       <c r="M5">
-        <v>0.97670000000000001</v>
+        <v>0.7097</v>
       </c>
       <c r="N5">
-        <v>0.79310000000000003</v>
+        <v>0.876</v>
       </c>
       <c r="O5">
-        <v>0.875</v>
+        <v>0.70230000000000004</v>
       </c>
       <c r="P5">
-        <v>0.94930000000000003</v>
+        <v>0.67210000000000003</v>
       </c>
       <c r="Q5">
-        <v>0.85350000000000004</v>
+        <v>0.9405</v>
       </c>
       <c r="R5">
-        <v>0.91949999999999998</v>
+        <v>0.79110000000000003</v>
       </c>
       <c r="S5">
-        <v>0.88829999999999998</v>
+        <v>0.58809999999999996</v>
       </c>
       <c r="T5">
-        <v>0.75144999999999995</v>
+        <v>0.79469999999999996</v>
       </c>
       <c r="U5">
-        <v>0.96040000000000003</v>
+        <v>0.68430000000000002</v>
       </c>
       <c r="V5">
-        <v>0.6835</v>
+        <v>0.7056</v>
       </c>
       <c r="W5">
-        <v>0.60060000000000002</v>
+        <v>0.65910000000000002</v>
       </c>
       <c r="X5">
-        <v>0.93789999999999996</v>
+        <v>0.45219999999999999</v>
       </c>
       <c r="Y5">
-        <v>0.71299999999999997</v>
+        <v>0.75149999999999995</v>
       </c>
       <c r="Z5">
-        <v>0.88339999999999996</v>
+        <v>0.86019999999999996</v>
       </c>
       <c r="AA5">
-        <v>0.86914999999999998</v>
+        <v>0.60050000000000003</v>
       </c>
       <c r="AB5">
-        <v>0.52980000000000005</v>
+        <v>0.78920000000000001</v>
       </c>
       <c r="AC5">
-        <v>0.78869999999999996</v>
+        <v>0.97130000000000005</v>
       </c>
       <c r="AD5">
-        <v>0.68110000000000004</v>
+        <v>0.92090000000000005</v>
       </c>
       <c r="AE5">
-        <v>0.93859999999999999</v>
+        <v>0.47070000000000001</v>
       </c>
       <c r="AF5">
-        <v>0.91539999999999999</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="AG5">
-        <v>0.94620000000000004</v>
+        <v>0.57220000000000004</v>
       </c>
       <c r="AH5">
-        <v>0.63780000000000003</v>
+        <v>0.48680000000000001</v>
       </c>
       <c r="AI5">
-        <v>0.6</v>
+        <v>0.57430000000000003</v>
       </c>
       <c r="AJ5">
-        <v>0.6603</v>
+        <v>0.99270000000000003</v>
       </c>
       <c r="AK5">
-        <v>0.71589999999999998</v>
+        <v>0.73019999999999996</v>
       </c>
       <c r="AL5">
-        <v>0.70120000000000005</v>
+        <v>0.65529999999999999</v>
       </c>
       <c r="AM5">
-        <v>0.62890000000000001</v>
+        <v>0.84750000000000003</v>
       </c>
       <c r="AN5">
-        <v>0.68300000000000005</v>
+        <v>0.67469999999999997</v>
       </c>
       <c r="AO5">
-        <v>0.70689999999999997</v>
+        <v>0.38</v>
       </c>
       <c r="AP5">
-        <v>0.67700000000000005</v>
+        <v>0.67769999999999997</v>
       </c>
       <c r="AQ5">
-        <v>0.51039999999999996</v>
+        <v>0.94540000000000002</v>
       </c>
       <c r="AR5">
-        <v>0.9244</v>
+        <v>0.71660000000000001</v>
       </c>
       <c r="AS5">
-        <v>0.76359999999999995</v>
+        <v>0.71189999999999998</v>
       </c>
       <c r="AT5">
-        <v>0.94120000000000004</v>
+        <v>0.91479999999999995</v>
       </c>
       <c r="AU5">
-        <v>0.70779999999999998</v>
+        <v>0.76870000000000005</v>
       </c>
       <c r="AV5">
-        <v>0.80389999999999995</v>
+        <v>0.70350000000000001</v>
       </c>
       <c r="AW5">
-        <v>0.72989999999999999</v>
+        <v>0.51970000000000005</v>
       </c>
       <c r="AX5">
-        <v>0.64690000000000003</v>
+        <v>0.59630000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.7863</v>
+        <v>0.45739999999999997</v>
       </c>
       <c r="B6">
-        <v>0.77610000000000001</v>
+        <v>0.5454</v>
       </c>
       <c r="C6">
-        <v>0.74139999999999995</v>
+        <v>0.80049999999999999</v>
       </c>
       <c r="D6">
-        <v>0.83299999999999996</v>
+        <v>0.85170000000000001</v>
       </c>
       <c r="E6">
-        <v>0.85799999999999998</v>
+        <v>0.78920000000000001</v>
       </c>
       <c r="F6">
-        <v>0.8679</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="G6">
-        <v>0.29530000000000001</v>
+        <v>0.93059999999999998</v>
       </c>
       <c r="H6">
-        <v>0.38200000000000001</v>
+        <v>0.6381</v>
       </c>
       <c r="I6">
-        <v>0.93400000000000005</v>
+        <v>0.86439999999999995</v>
       </c>
       <c r="J6">
-        <v>0.58250000000000002</v>
+        <v>0.53890000000000005</v>
       </c>
       <c r="K6">
-        <v>0.92149999999999999</v>
+        <v>0.81079999999999997</v>
       </c>
       <c r="L6">
-        <v>0.79530000000000001</v>
+        <v>0.80879999999999996</v>
       </c>
       <c r="M6">
-        <v>0.96140000000000003</v>
+        <v>0.83589999999999998</v>
       </c>
       <c r="N6">
-        <v>0.64239999999999997</v>
+        <v>0.81020000000000003</v>
       </c>
       <c r="O6">
-        <v>0.84804999999999997</v>
+        <v>0.56659999999999999</v>
       </c>
       <c r="P6">
-        <v>0.80430000000000001</v>
+        <v>0.69530000000000003</v>
       </c>
       <c r="Q6">
-        <v>0.71940000000000004</v>
+        <v>0.95269999999999999</v>
       </c>
       <c r="R6">
-        <v>0.83120000000000005</v>
+        <v>0.85009999999999997</v>
       </c>
       <c r="S6">
-        <v>0.89870000000000005</v>
+        <v>0.39829999999999999</v>
       </c>
       <c r="T6">
-        <v>0.67320000000000002</v>
+        <v>0.61570000000000003</v>
       </c>
       <c r="U6">
         <v>0.82589999999999997</v>
       </c>
       <c r="V6">
-        <v>0.48930000000000001</v>
+        <v>0.64039999999999997</v>
       </c>
       <c r="W6">
-        <v>0.4259</v>
+        <v>0.6381</v>
       </c>
       <c r="X6">
-        <v>0.97950000000000004</v>
+        <v>0.3427</v>
       </c>
       <c r="Y6">
-        <v>0.59760000000000002</v>
+        <v>0.61040000000000005</v>
       </c>
       <c r="Z6">
-        <v>0.75580000000000003</v>
+        <v>0.85770000000000002</v>
       </c>
       <c r="AA6">
-        <v>0.80910000000000004</v>
+        <v>0.63419999999999999</v>
       </c>
       <c r="AB6">
-        <v>0.4425</v>
+        <v>0.78180000000000005</v>
       </c>
       <c r="AC6">
-        <v>0.70140000000000002</v>
+        <v>0.91759999999999997</v>
       </c>
       <c r="AD6">
-        <v>0.40460000000000002</v>
+        <v>0.90620000000000001</v>
       </c>
       <c r="AE6">
-        <v>0.81730000000000003</v>
+        <v>0.38650000000000001</v>
       </c>
       <c r="AF6">
-        <v>0.95660000000000001</v>
+        <v>0.66349999999999998</v>
       </c>
       <c r="AG6">
-        <v>0.9677</v>
+        <v>0.4788</v>
       </c>
       <c r="AH6">
-        <v>0.48220000000000002</v>
+        <v>0.4773</v>
       </c>
       <c r="AI6">
-        <v>0.62329999999999997</v>
+        <v>0.33189999999999997</v>
       </c>
       <c r="AJ6">
-        <v>0.5091</v>
+        <v>0.91220000000000001</v>
       </c>
       <c r="AK6">
-        <v>0.69389999999999996</v>
+        <v>0.79730000000000001</v>
       </c>
       <c r="AL6">
-        <v>0.61860000000000004</v>
+        <v>0.73519999999999996</v>
       </c>
       <c r="AM6">
-        <v>0.38690000000000002</v>
+        <v>0.72419999999999995</v>
       </c>
       <c r="AN6">
-        <v>0.57879999999999998</v>
+        <v>0.54010000000000002</v>
       </c>
       <c r="AO6">
-        <v>0.78990000000000005</v>
+        <v>0.34110000000000001</v>
       </c>
       <c r="AP6">
-        <v>0.52329999999999999</v>
+        <v>0.53320000000000001</v>
       </c>
       <c r="AQ6">
-        <v>0.39610000000000001</v>
+        <v>0.78520000000000001</v>
       </c>
       <c r="AR6">
-        <v>0.9002</v>
+        <v>0.86329999999999996</v>
       </c>
       <c r="AS6">
-        <v>0.68</v>
+        <v>0.60529999999999995</v>
       </c>
       <c r="AT6">
-        <v>0.86950000000000005</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="AU6">
-        <v>0.77710000000000001</v>
+        <v>0.8216</v>
       </c>
       <c r="AV6">
-        <v>0.75900000000000001</v>
+        <v>0.64770000000000005</v>
       </c>
       <c r="AW6">
-        <v>0.74670000000000003</v>
+        <v>0.60640000000000005</v>
       </c>
       <c r="AX6">
-        <v>0.8367</v>
+        <v>0.67689999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.51849999999999996</v>
+        <v>0.53129999999999999</v>
       </c>
       <c r="B7">
-        <v>0.65749999999999997</v>
+        <v>0.497</v>
       </c>
       <c r="C7">
-        <v>0.83730000000000004</v>
+        <v>0.80379999999999996</v>
       </c>
       <c r="D7">
-        <v>0.80930000000000002</v>
+        <v>0.74439999999999995</v>
       </c>
       <c r="E7">
-        <v>0.7248</v>
+        <v>0.66369999999999996</v>
       </c>
       <c r="F7">
-        <v>0.82599999999999996</v>
+        <v>0.85550000000000004</v>
       </c>
       <c r="G7">
-        <v>0.1573</v>
+        <v>0.7429</v>
       </c>
       <c r="H7">
-        <v>0.52800000000000002</v>
+        <v>0.92190000000000005</v>
       </c>
       <c r="I7">
-        <v>0.77439999999999998</v>
+        <v>0.82220000000000004</v>
       </c>
       <c r="J7">
-        <v>0.60919999999999996</v>
+        <v>0.47870000000000001</v>
       </c>
       <c r="K7">
-        <v>0.96489999999999998</v>
+        <v>0.65049999999999997</v>
       </c>
       <c r="L7">
-        <v>0.50080000000000002</v>
+        <v>0.61609999999999998</v>
       </c>
       <c r="M7">
-        <v>0.95350000000000001</v>
+        <v>0.74129999999999996</v>
       </c>
       <c r="N7">
-        <v>0.75729999999999997</v>
+        <v>0.76959999999999995</v>
       </c>
       <c r="O7">
-        <v>0.80969999999999998</v>
+        <v>0.3846</v>
       </c>
       <c r="P7">
-        <v>0.85270000000000001</v>
+        <v>0.60870000000000002</v>
       </c>
       <c r="Q7">
-        <v>0.77729999999999999</v>
+        <v>0.90890000000000004</v>
       </c>
       <c r="R7">
-        <v>0.85070000000000001</v>
+        <v>0.79720000000000002</v>
       </c>
       <c r="S7">
-        <v>0.70340000000000003</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="T7">
-        <v>0.79120000000000001</v>
+        <v>0.59319999999999995</v>
       </c>
       <c r="U7">
-        <v>0.69910000000000005</v>
+        <v>0.9113</v>
       </c>
       <c r="V7">
-        <v>0.48630000000000001</v>
+        <v>0.60340000000000005</v>
       </c>
       <c r="W7">
-        <v>0.59119999999999995</v>
+        <v>0.46079999999999999</v>
       </c>
       <c r="X7">
-        <v>0.96079999999999999</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="Y7">
-        <v>0.64939999999999998</v>
+        <v>0.54969999999999997</v>
       </c>
       <c r="Z7">
-        <v>0.54349999999999998</v>
+        <v>0.78439999999999999</v>
       </c>
       <c r="AA7">
-        <v>0.75700000000000001</v>
+        <v>0.78669999999999995</v>
       </c>
       <c r="AB7">
-        <v>0.52049999999999996</v>
+        <v>0.86639999999999995</v>
       </c>
       <c r="AC7">
-        <v>0.76200000000000001</v>
+        <v>0.75660000000000005</v>
       </c>
       <c r="AD7">
-        <v>0.42630000000000001</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="AE7">
-        <v>0.64810000000000001</v>
+        <v>0.72109999999999996</v>
       </c>
       <c r="AF7">
-        <v>0.90900000000000003</v>
+        <v>0.6764</v>
       </c>
       <c r="AG7">
-        <v>0.90629999999999999</v>
+        <v>0.1963</v>
       </c>
       <c r="AH7">
-        <v>0.36570000000000003</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="AI7">
-        <v>0.54120000000000001</v>
+        <v>0.55169999999999997</v>
       </c>
       <c r="AJ7">
-        <v>0.66779999999999995</v>
+        <v>0.876</v>
       </c>
       <c r="AK7">
-        <v>0.44879999999999998</v>
+        <v>0.73619999999999997</v>
       </c>
       <c r="AL7">
-        <v>0.5091</v>
+        <v>0.54659999999999997</v>
       </c>
       <c r="AM7">
-        <v>0.30840000000000001</v>
+        <v>0.56979999999999997</v>
       </c>
       <c r="AN7">
-        <v>0.51539999999999997</v>
+        <v>0.64370000000000005</v>
       </c>
       <c r="AO7">
-        <v>0.6633</v>
+        <v>0.46839999999999998</v>
       </c>
       <c r="AP7">
-        <v>0.55720000000000003</v>
+        <v>0.38790000000000002</v>
       </c>
       <c r="AQ7">
-        <v>0.35310000000000002</v>
+        <v>0.69899999999999995</v>
       </c>
       <c r="AR7">
-        <v>0.91510000000000002</v>
+        <v>0.65059999999999996</v>
       </c>
       <c r="AS7">
-        <v>0.72250000000000003</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="AT7">
-        <v>0.81930000000000003</v>
+        <v>0.88239999999999996</v>
       </c>
       <c r="AU7">
-        <v>0.57889999999999997</v>
+        <v>0.64729999999999999</v>
       </c>
       <c r="AV7">
-        <v>0.77470000000000006</v>
+        <v>0.62760000000000005</v>
       </c>
       <c r="AW7">
-        <v>0.83919999999999995</v>
+        <v>0.46339999999999998</v>
       </c>
       <c r="AX7">
-        <v>0.81789999999999996</v>
+        <v>0.66279999999999994</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.48430000000000001</v>
+        <v>0.54079999999999995</v>
       </c>
       <c r="B8">
-        <v>0.43109999999999998</v>
+        <v>0.46250000000000002</v>
       </c>
       <c r="C8">
-        <v>0.748</v>
+        <v>0.70440000000000003</v>
       </c>
       <c r="D8">
-        <v>0.66800000000000004</v>
+        <v>0.84809999999999997</v>
       </c>
       <c r="E8">
-        <v>0.4758</v>
+        <v>0.74060000000000004</v>
       </c>
       <c r="F8">
-        <v>0.85940000000000005</v>
+        <v>0.91879999999999995</v>
       </c>
       <c r="G8">
-        <v>0.03</v>
+        <v>0.74119999999999997</v>
       </c>
       <c r="H8">
-        <v>0.61819999999999997</v>
+        <v>0.80579999999999996</v>
       </c>
       <c r="I8">
-        <v>0.71350000000000002</v>
+        <v>0.84109999999999996</v>
       </c>
       <c r="J8">
-        <v>0.56279999999999997</v>
+        <v>0.39850000000000002</v>
       </c>
       <c r="K8">
-        <v>0.85550000000000004</v>
+        <v>0.51919999999999999</v>
       </c>
       <c r="L8">
-        <v>0.24790000000000001</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="M8">
-        <v>0.92669999999999997</v>
+        <v>0.92830000000000001</v>
       </c>
       <c r="N8">
-        <v>0.71789999999999998</v>
+        <v>0.55279999999999996</v>
       </c>
       <c r="O8">
-        <v>0.92530000000000001</v>
+        <v>0.21060000000000001</v>
       </c>
       <c r="P8">
-        <v>0.68279999999999996</v>
+        <v>0.59630000000000005</v>
       </c>
       <c r="Q8">
-        <v>0.65620000000000001</v>
+        <v>0.88149999999999995</v>
       </c>
       <c r="R8">
-        <v>0.79179999999999995</v>
+        <v>0.67149999999999999</v>
       </c>
       <c r="S8">
-        <v>0.50039999999999996</v>
+        <v>0.66180000000000005</v>
       </c>
       <c r="T8">
-        <v>0.93310000000000004</v>
+        <v>0.56950000000000001</v>
       </c>
       <c r="U8">
-        <v>0.85489999999999999</v>
+        <v>0.86529999999999996</v>
       </c>
       <c r="V8">
-        <v>0.53920000000000001</v>
+        <v>0.72199999999999998</v>
       </c>
       <c r="W8">
-        <v>0.3987</v>
+        <v>0.6492</v>
       </c>
       <c r="X8">
-        <v>0.90890000000000004</v>
+        <v>0.55110000000000003</v>
       </c>
       <c r="Y8">
-        <v>0.7792</v>
+        <v>0.41210000000000002</v>
       </c>
       <c r="Z8">
-        <v>0.55930000000000002</v>
+        <v>0.63</v>
       </c>
       <c r="AA8">
-        <v>0.65080000000000005</v>
+        <v>0.53129999999999999</v>
       </c>
       <c r="AB8">
-        <v>0.60340000000000005</v>
+        <v>0.87639999999999996</v>
       </c>
       <c r="AC8">
-        <v>0.99160000000000004</v>
+        <v>0.68079999999999996</v>
       </c>
       <c r="AD8">
-        <v>0.49559999999999998</v>
+        <v>0.77569999999999995</v>
       </c>
       <c r="AE8">
-        <v>0.72219999999999995</v>
+        <v>0.54179999999999995</v>
       </c>
       <c r="AF8">
-        <v>0.86529999999999996</v>
+        <v>0.67110000000000003</v>
       </c>
       <c r="AG8">
-        <v>0.96660000000000001</v>
+        <v>0.16189999999999999</v>
       </c>
       <c r="AH8">
-        <v>0.25209999999999999</v>
+        <v>0.26129999999999998</v>
       </c>
       <c r="AI8">
-        <v>0.41549999999999998</v>
+        <v>0.64529999999999998</v>
       </c>
       <c r="AJ8">
-        <v>0.52669999999999995</v>
+        <v>0.77759999999999996</v>
       </c>
       <c r="AK8">
-        <v>0.41339999999999999</v>
+        <v>0.51470000000000005</v>
       </c>
       <c r="AL8">
-        <v>0.73680000000000001</v>
+        <v>0.49220000000000003</v>
       </c>
       <c r="AM8">
-        <v>0.3201</v>
+        <v>0.32979999999999998</v>
       </c>
       <c r="AN8">
-        <v>0.47889999999999999</v>
+        <v>0.66220000000000001</v>
       </c>
       <c r="AO8">
-        <v>0.78710000000000002</v>
+        <v>0.56710000000000005</v>
       </c>
       <c r="AP8">
-        <v>0.47320000000000001</v>
+        <v>0.2266</v>
       </c>
       <c r="AQ8">
-        <v>0.44429999999999997</v>
+        <v>0.59740000000000004</v>
       </c>
       <c r="AR8">
-        <v>0.85519999999999996</v>
+        <v>0.59089999999999998</v>
       </c>
       <c r="AS8">
-        <v>0.80649999999999999</v>
+        <v>0.55449999999999999</v>
       </c>
       <c r="AT8">
-        <v>0.87719999999999998</v>
+        <v>0.97470000000000001</v>
       </c>
       <c r="AU8">
-        <v>0.4204</v>
+        <v>0.52759999999999996</v>
       </c>
       <c r="AV8">
-        <v>0.70809999999999995</v>
+        <v>0.56530000000000002</v>
       </c>
       <c r="AW8">
-        <v>0.71850000000000003</v>
+        <v>0.33169999999999999</v>
       </c>
       <c r="AX8">
-        <v>0.66920000000000002</v>
+        <v>0.3503</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.28660000000000002</v>
+        <v>0.47039999999999998</v>
       </c>
       <c r="B9">
-        <v>0.56699999999999995</v>
+        <v>0.27879999999999999</v>
       </c>
       <c r="C9">
-        <v>0.45100000000000001</v>
+        <v>0.73819999999999997</v>
       </c>
       <c r="D9">
-        <v>0.55569999999999997</v>
+        <v>0.89439999999999997</v>
       </c>
       <c r="E9">
-        <v>0.3397</v>
+        <v>0.81720000000000004</v>
       </c>
       <c r="F9">
-        <v>0.64</v>
+        <v>0.83330000000000004</v>
       </c>
       <c r="G9">
-        <v>8.5599999999999996E-2</v>
+        <v>0.63660000000000005</v>
       </c>
       <c r="H9">
-        <v>0.41289999999999999</v>
+        <v>0.66100000000000003</v>
       </c>
       <c r="I9">
-        <v>0.55759999999999998</v>
+        <v>0.64480000000000004</v>
       </c>
       <c r="J9">
-        <v>0.71179999999999999</v>
+        <v>0.54720000000000002</v>
       </c>
       <c r="K9">
-        <v>0.72989999999999999</v>
+        <v>0.48249999999999998</v>
       </c>
       <c r="L9">
-        <v>0.35699999999999998</v>
+        <v>0.54659999999999997</v>
       </c>
       <c r="M9">
-        <v>0.82230000000000003</v>
+        <v>0.92120000000000002</v>
       </c>
       <c r="N9">
-        <v>0.75939999999999996</v>
+        <v>0.42509999999999998</v>
       </c>
       <c r="O9">
-        <v>0.89429999999999998</v>
+        <v>0.1948</v>
       </c>
       <c r="P9">
-        <v>0.67459999999999998</v>
+        <v>0.46829999999999999</v>
       </c>
       <c r="Q9">
-        <v>0.70899999999999996</v>
+        <v>0.88439999999999996</v>
       </c>
       <c r="R9">
-        <v>0.6966</v>
+        <v>0.8276</v>
       </c>
       <c r="S9">
-        <v>0.46629999999999999</v>
+        <v>0.75519999999999998</v>
       </c>
       <c r="T9">
-        <v>0.93730000000000002</v>
+        <v>0.73440000000000005</v>
       </c>
       <c r="U9">
-        <v>0.80410000000000004</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="V9">
-        <v>0.51929999999999998</v>
+        <v>0.59619999999999995</v>
       </c>
       <c r="W9">
-        <v>0.48609999999999998</v>
+        <v>0.64139999999999997</v>
       </c>
       <c r="X9">
-        <v>0.79249999999999998</v>
+        <v>0.58409999999999995</v>
       </c>
       <c r="Y9">
-        <v>0.63890000000000002</v>
+        <v>0.49469999999999997</v>
       </c>
       <c r="Z9">
-        <v>0.47920000000000001</v>
+        <v>0.74909999999999999</v>
       </c>
       <c r="AA9">
-        <v>0.55720000000000003</v>
+        <v>0.47560000000000002</v>
       </c>
       <c r="AB9">
-        <v>0.39090000000000003</v>
+        <v>0.90969999999999995</v>
       </c>
       <c r="AC9">
-        <v>0.86699999999999999</v>
+        <v>0.8357</v>
       </c>
       <c r="AD9">
-        <v>0.56289999999999996</v>
+        <v>0.6663</v>
       </c>
       <c r="AE9">
-        <v>0.4642</v>
+        <v>0.50419999999999998</v>
       </c>
       <c r="AF9">
-        <v>0.79549999999999998</v>
+        <v>0.56640000000000001</v>
       </c>
       <c r="AG9">
-        <v>0.92190000000000005</v>
+        <v>0.28739999999999999</v>
       </c>
       <c r="AH9">
-        <v>6.4199999999999993E-2</v>
+        <v>0.39360000000000001</v>
       </c>
       <c r="AI9">
-        <v>0.55869999999999997</v>
+        <v>0.63339999999999996</v>
       </c>
       <c r="AJ9">
-        <v>0.54410000000000003</v>
+        <v>0.65969999999999995</v>
       </c>
       <c r="AK9">
-        <v>0.73560000000000003</v>
+        <v>0.30769999999999997</v>
       </c>
       <c r="AL9">
-        <v>0.78080000000000005</v>
+        <v>0.41830000000000001</v>
       </c>
       <c r="AM9">
-        <v>0.39</v>
+        <v>0.61450000000000005</v>
       </c>
       <c r="AN9">
-        <v>0.44340000000000002</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="AO9">
-        <v>0.69369999999999998</v>
+        <v>0.32840000000000003</v>
       </c>
       <c r="AP9">
-        <v>0.45550000000000002</v>
+        <v>0.44069999999999998</v>
       </c>
       <c r="AQ9">
-        <v>0.34520000000000001</v>
+        <v>0.3745</v>
       </c>
       <c r="AR9">
-        <v>0.81499999999999995</v>
+        <v>0.53410000000000002</v>
       </c>
       <c r="AS9">
-        <v>0.72109999999999996</v>
+        <v>0.81720000000000004</v>
       </c>
       <c r="AT9">
-        <v>0.87609999999999999</v>
+        <v>0.94210000000000005</v>
       </c>
       <c r="AU9">
-        <v>0.42470000000000002</v>
+        <v>0.29409999999999997</v>
       </c>
       <c r="AV9">
-        <v>0.81479999999999997</v>
+        <v>0.71760000000000002</v>
       </c>
       <c r="AW9">
-        <v>0.56840000000000002</v>
+        <v>0.2828</v>
       </c>
       <c r="AX9">
-        <v>0.74839999999999995</v>
+        <v>0.20880000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.29620000000000002</v>
+        <v>0.2727</v>
       </c>
       <c r="B10">
-        <v>0.58579999999999999</v>
+        <v>0.36919999999999997</v>
       </c>
       <c r="C10">
-        <v>0.3281</v>
+        <v>0.68899999999999995</v>
       </c>
       <c r="D10">
-        <v>0.79039999999999999</v>
+        <v>0.79990000000000006</v>
       </c>
       <c r="E10">
-        <v>0.33839999999999998</v>
+        <v>0.75980000000000003</v>
       </c>
       <c r="F10">
-        <v>0.73329999999999995</v>
+        <v>0.91639999999999999</v>
       </c>
       <c r="G10">
-        <v>4.24E-2</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="H10">
-        <v>0.46160000000000001</v>
+        <v>0.35980000000000001</v>
       </c>
       <c r="I10">
-        <v>0.65480000000000005</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="J10">
-        <v>0.7036</v>
+        <v>0.49299999999999999</v>
       </c>
       <c r="K10">
-        <v>0.70879999999999999</v>
+        <v>0.43469999999999998</v>
       </c>
       <c r="L10">
-        <v>0.31979999999999997</v>
+        <v>0.71689999999999998</v>
       </c>
       <c r="M10">
-        <v>0.70669999999999999</v>
+        <v>0.80710000000000004</v>
       </c>
       <c r="N10">
-        <v>0.75780000000000003</v>
+        <v>0.3483</v>
       </c>
       <c r="O10">
-        <v>0.93489999999999995</v>
+        <v>0.44090000000000001</v>
       </c>
       <c r="P10">
-        <v>0.52910000000000001</v>
+        <v>0.15129999999999999</v>
       </c>
       <c r="Q10">
-        <v>0.65410000000000001</v>
+        <v>0.91090000000000004</v>
       </c>
       <c r="R10">
-        <v>0.56479999999999997</v>
+        <v>0.75290000000000001</v>
       </c>
       <c r="S10">
-        <v>0.50829999999999997</v>
+        <v>0.7762</v>
       </c>
       <c r="T10">
-        <v>0.94079999999999997</v>
+        <v>0.69730000000000003</v>
       </c>
       <c r="U10">
-        <v>0.76170000000000004</v>
+        <v>0.8599</v>
       </c>
       <c r="V10">
-        <v>0.63680000000000003</v>
+        <v>0.67279999999999995</v>
       </c>
       <c r="W10">
-        <v>0.49919999999999998</v>
+        <v>0.60550000000000004</v>
       </c>
       <c r="X10">
-        <v>0.91200000000000003</v>
+        <v>0.66420000000000001</v>
       </c>
       <c r="Y10">
-        <v>0.442</v>
+        <v>0.3115</v>
       </c>
       <c r="Z10">
-        <v>0.49669999999999997</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="AA10">
-        <v>0.56079999999999997</v>
+        <v>0.39319999999999999</v>
       </c>
       <c r="AB10">
-        <v>0.42680000000000001</v>
+        <v>0.86770000000000003</v>
       </c>
       <c r="AC10">
-        <v>0.77410000000000001</v>
+        <v>0.71220000000000006</v>
       </c>
       <c r="AD10">
-        <v>0.66569999999999996</v>
+        <v>0.62150000000000005</v>
       </c>
       <c r="AE10">
-        <v>0.44169999999999998</v>
+        <v>0.51629999999999998</v>
       </c>
       <c r="AF10">
-        <v>0.81950000000000001</v>
+        <v>0.43430000000000002</v>
       </c>
       <c r="AG10">
-        <v>0.98270000000000002</v>
+        <v>0.44569999999999999</v>
       </c>
       <c r="AH10">
-        <v>7.3700000000000002E-2</v>
+        <v>0.34420000000000001</v>
       </c>
       <c r="AI10">
-        <v>0.56189999999999996</v>
+        <v>0.76629999999999998</v>
       </c>
       <c r="AJ10">
-        <v>0.75219999999999998</v>
+        <v>0.48230000000000001</v>
       </c>
       <c r="AK10">
-        <v>0.77939999999999998</v>
+        <v>0.10589999999999999</v>
       </c>
       <c r="AL10">
-        <v>0.79810000000000003</v>
+        <v>0.44180000000000003</v>
       </c>
       <c r="AM10">
-        <v>0.61180000000000001</v>
+        <v>0.74309999999999998</v>
       </c>
       <c r="AN10">
-        <v>0.49280000000000002</v>
+        <v>0.77490000000000003</v>
       </c>
       <c r="AO10">
-        <v>0.61550000000000005</v>
+        <v>0.2515</v>
       </c>
       <c r="AP10">
-        <v>0.47799999999999998</v>
+        <v>0.69930000000000003</v>
       </c>
       <c r="AQ10">
-        <v>0.30719999999999997</v>
+        <v>0.45019999999999999</v>
       </c>
       <c r="AR10">
-        <v>0.73009999999999997</v>
+        <v>0.41810000000000003</v>
       </c>
       <c r="AS10">
-        <v>0.65190000000000003</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="AT10">
-        <v>0.87239999999999995</v>
+        <v>0.86670000000000003</v>
       </c>
       <c r="AU10">
-        <v>0.42070000000000002</v>
+        <v>0.21879999999999999</v>
       </c>
       <c r="AV10">
-        <v>0.6986</v>
+        <v>0.58120000000000005</v>
       </c>
       <c r="AW10">
-        <v>0.41239999999999999</v>
+        <v>0.42420000000000002</v>
       </c>
       <c r="AX10">
-        <v>0.58730000000000004</v>
+        <v>0.1716</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.15620000000000001</v>
+        <v>0.57240000000000002</v>
       </c>
       <c r="B11">
-        <v>0.3115</v>
+        <v>0.6643</v>
       </c>
       <c r="C11">
-        <v>0.13900000000000001</v>
+        <v>0.7601</v>
       </c>
       <c r="D11">
-        <v>0.61029999999999995</v>
+        <v>0.64319999999999999</v>
       </c>
       <c r="E11">
-        <v>0.50539999999999996</v>
+        <v>0.70909999999999995</v>
       </c>
       <c r="F11">
-        <v>0.55049999999999999</v>
+        <v>0.87360000000000004</v>
       </c>
       <c r="G11">
-        <v>4.1200000000000001E-2</v>
+        <v>0.54349999999999998</v>
       </c>
       <c r="H11">
-        <v>0.36120000000000002</v>
+        <v>0.63129999999999997</v>
       </c>
       <c r="I11">
-        <v>0.6048</v>
+        <v>0.65659999999999996</v>
       </c>
       <c r="J11">
-        <v>0.63649999999999995</v>
+        <v>0.5927</v>
       </c>
       <c r="K11">
-        <v>0.63449999999999995</v>
+        <v>0.51539999999999997</v>
       </c>
       <c r="L11">
-        <v>0.4224</v>
+        <v>0.40660000000000002</v>
       </c>
       <c r="M11">
-        <v>0.62890000000000001</v>
+        <v>0.81930000000000003</v>
       </c>
       <c r="N11">
-        <v>0.73450000000000004</v>
+        <v>0.53879999999999995</v>
       </c>
       <c r="O11">
-        <v>0.81279999999999997</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="P11">
-        <v>0.65269999999999995</v>
+        <v>0.31019999999999998</v>
       </c>
       <c r="Q11">
-        <v>0.54479999999999995</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="R11">
-        <v>0.63790000000000002</v>
+        <v>0.83530000000000004</v>
       </c>
       <c r="S11">
-        <v>0.49680000000000002</v>
+        <v>0.5363</v>
       </c>
       <c r="T11">
-        <v>0.83699999999999997</v>
+        <v>0.65580000000000005</v>
       </c>
       <c r="U11">
-        <v>0.85750000000000004</v>
+        <v>0.95069999999999999</v>
       </c>
       <c r="V11">
-        <v>0.42899999999999999</v>
+        <v>0.69630000000000003</v>
       </c>
       <c r="W11">
-        <v>0.61270000000000002</v>
+        <v>0.55369999999999997</v>
       </c>
       <c r="X11">
-        <v>0.7601</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="Y11">
-        <v>0.61240000000000006</v>
+        <v>0.2034</v>
       </c>
       <c r="Z11">
-        <v>0.7228</v>
+        <v>0.78259999999999996</v>
       </c>
       <c r="AA11">
-        <v>0.78069999999999995</v>
+        <v>0.22989999999999999</v>
       </c>
       <c r="AB11">
-        <v>0.44779999999999998</v>
+        <v>0.6351</v>
       </c>
       <c r="AC11">
-        <v>0.66100000000000003</v>
+        <v>0.72189999999999999</v>
       </c>
       <c r="AD11">
-        <v>0.58850000000000002</v>
+        <v>0.64410000000000001</v>
       </c>
       <c r="AE11">
-        <v>0.45440000000000003</v>
+        <v>0.51249999999999996</v>
       </c>
       <c r="AF11">
-        <v>0.80800000000000005</v>
+        <v>0.32419999999999999</v>
       </c>
       <c r="AG11">
-        <v>0.95909999999999995</v>
+        <v>0.4289</v>
       </c>
       <c r="AH11">
-        <v>5.1900000000000002E-2</v>
+        <v>0.55920000000000003</v>
       </c>
       <c r="AI11">
-        <v>0.58189999999999997</v>
+        <v>0.7056</v>
       </c>
       <c r="AJ11">
-        <v>0.75609999999999999</v>
+        <v>0.32650000000000001</v>
       </c>
       <c r="AK11">
-        <v>0.69210000000000005</v>
+        <v>0</v>
       </c>
       <c r="AL11">
-        <v>0.67530000000000001</v>
+        <v>0.54849999999999999</v>
       </c>
       <c r="AM11">
-        <v>0.51070000000000004</v>
+        <v>0.87039999999999995</v>
       </c>
       <c r="AN11">
-        <v>0.42809999999999998</v>
+        <v>0.64529999999999998</v>
       </c>
       <c r="AO11">
-        <v>0.65890000000000004</v>
+        <v>0.41549999999999998</v>
       </c>
       <c r="AP11">
-        <v>0.53359999999999996</v>
+        <v>0.68130000000000002</v>
       </c>
       <c r="AQ11">
-        <v>0.2177</v>
+        <v>0.76019999999999999</v>
       </c>
       <c r="AR11">
-        <v>0.87919999999999998</v>
+        <v>0.27079999999999999</v>
       </c>
       <c r="AS11">
-        <v>0.52129999999999999</v>
+        <v>0.64339999999999997</v>
       </c>
       <c r="AT11">
-        <v>0.87909999999999999</v>
+        <v>0.82650000000000001</v>
       </c>
       <c r="AU11">
-        <v>0.4204</v>
+        <v>0.2281</v>
       </c>
       <c r="AV11">
-        <v>0.72009999999999996</v>
+        <v>0.69410000000000005</v>
       </c>
       <c r="AW11">
-        <v>0.4834</v>
+        <v>0.50990000000000002</v>
       </c>
       <c r="AX11">
-        <v>0.49230000000000002</v>
+        <v>0.1007</v>
       </c>
     </row>
   </sheetData>
